--- a/inst/results/Data_analysis/3.sum_levels.xlsx
+++ b/inst/results/Data_analysis/3.sum_levels.xlsx
@@ -566,13 +566,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>17.19</v>
+        <v>18.45</v>
       </c>
       <c r="D10">
-        <v>5.9</v>
+        <v>6.73</v>
       </c>
       <c r="E10">
-        <v>52.35</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="11">
@@ -587,13 +587,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>9.84</v>
+        <v>10.67</v>
       </c>
       <c r="D11">
-        <v>2.1</v>
+        <v>2.93</v>
       </c>
       <c r="E11">
-        <v>48.47</v>
+        <v>144.48</v>
       </c>
     </row>
     <row r="12">
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>5.49</v>
+        <v>6.32</v>
       </c>
       <c r="D12">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="E12">
-        <v>12.76</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="13">
@@ -629,13 +629,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>15.04</v>
+        <v>15.87</v>
       </c>
       <c r="D13">
-        <v>8.539999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E13">
-        <v>24.5</v>
+        <v>25.33</v>
       </c>
     </row>
     <row r="14">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>21.17</v>
+        <v>23.86</v>
       </c>
       <c r="D14">
-        <v>2.1</v>
+        <v>2.93</v>
       </c>
       <c r="E14">
-        <v>48.47</v>
+        <v>144.48</v>
       </c>
     </row>
     <row r="15">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>4.83</v>
+        <v>5.66</v>
       </c>
       <c r="D15">
-        <v>2.1</v>
+        <v>2.93</v>
       </c>
       <c r="E15">
-        <v>12.76</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="16">
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>9.529999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="D16">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="E16">
-        <v>28.14</v>
+        <v>28.97</v>
       </c>
     </row>
     <row r="17">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>17.06</v>
+        <v>18.45</v>
       </c>
       <c r="D17">
-        <v>5.9</v>
+        <v>6.73</v>
       </c>
       <c r="E17">
-        <v>52.35</v>
+        <v>144.48</v>
       </c>
     </row>
   </sheetData>
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>3.91</v>
+        <v>4.13</v>
       </c>
       <c r="D10">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="E10">
-        <v>11.31</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="11">
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.56</v>
+        <v>1.96</v>
       </c>
       <c r="D11">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="E11">
-        <v>6.83</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="12">
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="D12">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="E12">
-        <v>2.46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>2.15</v>
+        <v>2.34</v>
       </c>
       <c r="D13">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="E13">
-        <v>4.8</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="14">
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>4.04</v>
+        <v>4.92</v>
       </c>
       <c r="D14">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="E14">
-        <v>6.83</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="15">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D15">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="E15">
-        <v>2.46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="D16">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E16">
-        <v>6.05</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="17">
@@ -1089,13 +1089,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>3.91</v>
+        <v>4.36</v>
       </c>
       <c r="D17">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="E17">
-        <v>11.31</v>
+        <v>19.22</v>
       </c>
     </row>
   </sheetData>
